--- a/cda_basismodul/Basismodul-EAV-I2B2.xlsx
+++ b/cda_basismodul/Basismodul-EAV-I2B2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1514">
   <si>
     <t xml:space="preserve">Feldname </t>
   </si>
@@ -1083,9 +1083,6 @@
   </si>
   <si>
     <t>MTS Liste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syptomdauer </t>
   </si>
   <si>
     <t xml:space="preserve">Zeitdauer des Hauptsymptoms </t>
@@ -5098,10 +5095,13 @@
     <t>Datenschutz</t>
   </si>
   <si>
-    <t>Heitmann/Fehler</t>
-  </si>
-  <si>
     <t>Lfd Nr.</t>
+  </si>
+  <si>
+    <t>=882?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symptomdauer </t>
   </si>
 </sst>
 </file>
@@ -5273,7 +5273,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5456,6 +5456,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -10103,7 +10104,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -10111,7 +10112,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -10119,7 +10120,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10127,7 +10128,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -10135,7 +10136,7 @@
         <v>266</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -10151,7 +10152,7 @@
         <v>267</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -10162,7 +10163,7 @@
         <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -10170,7 +10171,7 @@
         <v>271</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -10178,7 +10179,7 @@
         <v>272</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -10186,7 +10187,7 @@
         <v>273</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -10194,7 +10195,7 @@
         <v>274</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -10202,7 +10203,7 @@
         <v>275</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -10210,7 +10211,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -10218,7 +10219,7 @@
         <v>276</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -10226,7 +10227,7 @@
         <v>277</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -10234,7 +10235,7 @@
         <v>278</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -10242,7 +10243,7 @@
         <v>279</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -10250,7 +10251,7 @@
         <v>280</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -10266,7 +10267,7 @@
         <v>284</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C22" t="s">
         <v>162</v>
@@ -10277,7 +10278,7 @@
         <v>125</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -10285,7 +10286,7 @@
         <v>288</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -10293,7 +10294,7 @@
         <v>289</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -10301,7 +10302,7 @@
         <v>290</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -10309,7 +10310,7 @@
         <v>120</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -10317,7 +10318,7 @@
         <v>123</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -10325,7 +10326,7 @@
         <v>122</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -10333,7 +10334,7 @@
         <v>125</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -10341,7 +10342,7 @@
         <v>291</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -10349,7 +10350,7 @@
         <v>292</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -10357,7 +10358,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -10365,7 +10366,7 @@
         <v>16</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -10373,7 +10374,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -10381,7 +10382,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -10389,7 +10390,7 @@
         <v>19</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -10397,7 +10398,7 @@
         <v>20</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -10405,7 +10406,7 @@
         <v>24</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -10413,7 +10414,7 @@
         <v>25</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -10421,7 +10422,7 @@
         <v>29</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -10429,7 +10430,7 @@
         <v>30</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -10437,7 +10438,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -10445,7 +10446,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -10453,7 +10454,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -10461,7 +10462,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -10469,7 +10470,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -10477,7 +10478,7 @@
         <v>56</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -10485,7 +10486,7 @@
         <v>298</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -10493,7 +10494,7 @@
         <v>59</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -10501,7 +10502,7 @@
         <v>62</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -10509,7 +10510,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -10517,7 +10518,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -10525,7 +10526,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -10533,7 +10534,7 @@
         <v>70</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -10541,7 +10542,7 @@
         <v>71</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -10549,7 +10550,7 @@
         <v>72</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -10557,7 +10558,7 @@
         <v>75</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -10565,7 +10566,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -10573,7 +10574,7 @@
         <v>79</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -10581,7 +10582,7 @@
         <v>80</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -10589,7 +10590,7 @@
         <v>81</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -10597,7 +10598,7 @@
         <v>83</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -10605,7 +10606,7 @@
         <v>84</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -10613,15 +10614,15 @@
         <v>87</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>482</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -10629,7 +10630,7 @@
         <v>92</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -10653,7 +10654,7 @@
         <v>95</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -10661,7 +10662,7 @@
         <v>96</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -10669,7 +10670,7 @@
         <v>99</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -10677,7 +10678,7 @@
         <v>100</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -10685,7 +10686,7 @@
         <v>101</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -10693,7 +10694,7 @@
         <v>102</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -10701,7 +10702,7 @@
         <v>103</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -10709,7 +10710,7 @@
         <v>106</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -10717,7 +10718,7 @@
         <v>107</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -10725,15 +10726,15 @@
         <v>108</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
+        <v>493</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -10741,7 +10742,7 @@
         <v>109</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -10749,7 +10750,7 @@
         <v>110</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -10757,7 +10758,7 @@
         <v>111</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -10765,7 +10766,7 @@
         <v>114</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -10781,7 +10782,7 @@
         <v>299</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -10789,7 +10790,7 @@
         <v>300</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -10797,7 +10798,7 @@
         <v>301</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -10805,7 +10806,7 @@
         <v>302</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -10813,7 +10814,7 @@
         <v>305</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -10829,7 +10830,7 @@
         <v>306</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -10845,7 +10846,7 @@
         <v>310</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -10853,7 +10854,7 @@
         <v>131</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -10866,10 +10867,10 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -10885,7 +10886,7 @@
         <v>314</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -10901,7 +10902,7 @@
         <v>316</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -10909,7 +10910,7 @@
         <v>319</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -10917,7 +10918,7 @@
         <v>320</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -10925,7 +10926,7 @@
         <v>321</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -10933,15 +10934,15 @@
         <v>322</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -10949,47 +10950,47 @@
         <v>323</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B111" s="13" t="s">
         <v>513</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>515</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -10997,7 +10998,7 @@
         <v>325</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -11005,7 +11006,7 @@
         <v>345</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -11013,7 +11014,7 @@
         <v>348</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -11021,7 +11022,7 @@
         <v>349</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -11037,7 +11038,7 @@
         <v>352</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -11045,108 +11046,108 @@
         <v>353</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B127" s="13" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>260</v>
@@ -11154,50 +11155,50 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B133" s="13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -11261,68 +11262,68 @@
         <v>44</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>256</v>
@@ -11330,34 +11331,34 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -11370,47 +11371,47 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>259</v>
@@ -11421,47 +11422,47 @@
         <v>126</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -11469,39 +11470,39 @@
         <v>118</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -11509,44 +11510,44 @@
         <v>343</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B182" s="8" t="s">
         <v>262</v>
@@ -11557,7 +11558,7 @@
         <v>268</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -11565,7 +11566,7 @@
         <v>269</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -11573,7 +11574,7 @@
         <v>282</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -11581,7 +11582,7 @@
         <v>283</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -11589,7 +11590,7 @@
         <v>286</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -11597,20 +11598,20 @@
         <v>287</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="12" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B190" s="12" t="s">
         <v>233</v>
@@ -11618,15 +11619,15 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B191" s="29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B192" s="17" t="s">
         <v>153</v>
@@ -11637,12 +11638,12 @@
         <v>264</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B194" s="12" t="s">
         <v>193</v>
@@ -11650,23 +11651,23 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B197" s="12" t="s">
         <v>203</v>
@@ -11674,15 +11675,15 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B198" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B199" s="17" t="s">
         <v>150</v>
@@ -11690,7 +11691,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B200" s="12" t="s">
         <v>205</v>
@@ -11698,47 +11699,47 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B203" s="12" t="s">
         <v>586</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B206" s="12" t="s">
         <v>134</v>
@@ -11754,18 +11755,18 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -11773,7 +11774,7 @@
         <v>108</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -11781,7 +11782,7 @@
         <v>110</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -11789,7 +11790,7 @@
         <v>95</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -11803,7 +11804,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B214" s="12" t="s">
         <v>225</v>
@@ -11811,7 +11812,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B215" s="36" t="str">
         <f>IF(A215&lt;&gt;"",VLOOKUP(A215,'[1]DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -11820,7 +11821,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>226</v>
@@ -11828,7 +11829,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B217" s="17" t="s">
         <v>247</v>
@@ -11836,7 +11837,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B218" s="12" t="s">
         <v>237</v>
@@ -11844,7 +11845,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B219" s="12" t="s">
         <v>192</v>
@@ -11860,15 +11861,15 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B222" s="12" t="s">
         <v>223</v>
@@ -11876,7 +11877,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B223" s="12" t="s">
         <v>183</v>
@@ -11884,31 +11885,31 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B226" s="12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B227" s="17" t="s">
         <v>245</v>
@@ -11916,15 +11917,15 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B228" s="12" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B229" s="12" t="s">
         <v>180</v>
@@ -11932,7 +11933,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B230" s="12" t="s">
         <v>235</v>
@@ -11940,15 +11941,15 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B231" s="12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B232" s="17" t="s">
         <v>185</v>
@@ -11959,12 +11960,12 @@
         <v>126</v>
       </c>
       <c r="B233" s="12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B234" s="17" t="s">
         <v>244</v>
@@ -11981,7 +11982,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>220</v>
@@ -11989,7 +11990,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B237" s="12" t="s">
         <v>224</v>
@@ -11997,7 +11998,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B238" s="12" t="s">
         <v>206</v>
@@ -12005,15 +12006,15 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B240" s="12" t="s">
         <v>186</v>
@@ -12021,7 +12022,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B241" s="17" t="s">
         <v>144</v>
@@ -12032,7 +12033,7 @@
         <v>92</v>
       </c>
       <c r="B242" s="23" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -12040,7 +12041,7 @@
         <v>106</v>
       </c>
       <c r="B243" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -12048,7 +12049,7 @@
         <v>114</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -12056,20 +12057,20 @@
         <v>99</v>
       </c>
       <c r="B245" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B246" s="12" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B247" s="12" t="s">
         <v>133</v>
@@ -12077,7 +12078,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B248" s="12" t="s">
         <v>255</v>
@@ -12085,7 +12086,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B249" s="12" t="s">
         <v>138</v>
@@ -12096,12 +12097,12 @@
         <v>111</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B251" s="12" t="s">
         <v>228</v>
@@ -12109,7 +12110,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B252" s="17" t="s">
         <v>184</v>
@@ -12117,7 +12118,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B253" s="17" t="s">
         <v>151</v>
@@ -12125,7 +12126,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B254" s="12" t="s">
         <v>179</v>
@@ -12141,15 +12142,15 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B256" s="12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B257" s="12" t="s">
         <v>214</v>
@@ -12157,7 +12158,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B258" s="12" t="s">
         <v>215</v>
@@ -12165,7 +12166,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B259" s="12" t="s">
         <v>187</v>
@@ -12176,12 +12177,12 @@
         <v>101</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B261" s="12" t="s">
         <v>216</v>
@@ -12197,7 +12198,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B263" s="12" t="s">
         <v>175</v>
@@ -12205,7 +12206,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B264" s="12" t="s">
         <v>239</v>
@@ -12213,7 +12214,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>239</v>
@@ -12229,7 +12230,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B267" s="12" t="s">
         <v>175</v>
@@ -12237,7 +12238,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B268" s="12" t="s">
         <v>204</v>
@@ -12245,7 +12246,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B269" s="12" t="s">
         <v>180</v>
@@ -12253,7 +12254,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B270" s="12" t="s">
         <v>181</v>
@@ -12269,7 +12270,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B272" s="12" t="s">
         <v>165</v>
@@ -12277,7 +12278,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B273" s="24" t="s">
         <v>160</v>
@@ -12285,7 +12286,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B274" s="12" t="s">
         <v>213</v>
@@ -12293,7 +12294,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B275" s="12" t="s">
         <v>177</v>
@@ -12301,7 +12302,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="12" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B276" s="12" t="s">
         <v>241</v>
@@ -12309,15 +12310,15 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="12" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="12" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B278" s="17" t="s">
         <v>234</v>
@@ -12333,15 +12334,15 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="B280" s="12" t="s">
         <v>751</v>
-      </c>
-      <c r="B280" s="12" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B281" s="12" t="s">
         <v>176</v>
@@ -12349,7 +12350,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B282" s="12" t="s">
         <v>198</v>
@@ -12357,7 +12358,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="12" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B283" s="12" t="s">
         <v>242</v>
@@ -12365,7 +12366,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B284" s="12" t="s">
         <v>171</v>
@@ -12373,7 +12374,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B285" s="12" t="s">
         <v>196</v>
@@ -12381,15 +12382,15 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B286" s="28" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B287" s="36" t="str">
         <f>IF(A287&lt;&gt;"",VLOOKUP(A287,'[1]DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -12398,15 +12399,15 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B288" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B289" s="17" t="s">
         <v>219</v>
@@ -12414,7 +12415,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B290" s="12" t="s">
         <v>190</v>
@@ -12439,7 +12440,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B293" s="17" t="s">
         <v>142</v>
@@ -12447,58 +12448,58 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B294" s="12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B295" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B296" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B298" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B299" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B300" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -12506,7 +12507,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -12519,10 +12520,10 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="12" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -12530,12 +12531,12 @@
         <v>131</v>
       </c>
       <c r="B304" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B305" s="12" t="s">
         <v>199</v>
@@ -12543,23 +12544,23 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="12" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B308" s="17" t="s">
         <v>249</v>
@@ -12567,10 +12568,10 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="12" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -12578,7 +12579,7 @@
         <v>103</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -12591,13 +12592,13 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B312" s="12"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B313" s="12" t="s">
         <v>174</v>
@@ -12613,7 +12614,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B315" s="12" t="s">
         <v>141</v>
@@ -12621,23 +12622,23 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B318" s="17" t="s">
         <v>238</v>
@@ -12653,15 +12654,15 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B321" s="17" t="s">
         <v>172</v>
@@ -12672,7 +12673,7 @@
         <v>305</v>
       </c>
       <c r="B322" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -12694,7 +12695,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B325" s="12" t="s">
         <v>207</v>
@@ -12702,7 +12703,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B326" s="12" t="s">
         <v>208</v>
@@ -12710,7 +12711,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="12" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B327" s="12" t="s">
         <v>236</v>
@@ -12718,7 +12719,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B328" s="12" t="s">
         <v>232</v>
@@ -12726,7 +12727,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="12" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B329" s="12" t="s">
         <v>188</v>
@@ -12734,7 +12735,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B330" s="17" t="s">
         <v>243</v>
@@ -12742,10 +12743,10 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="12" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -12758,7 +12759,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B333" s="12" t="s">
         <v>173</v>
@@ -12766,7 +12767,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B334" s="12" t="s">
         <v>174</v>
@@ -12774,15 +12775,15 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B335" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B336" s="17" t="s">
         <v>147</v>
@@ -12793,7 +12794,7 @@
         <v>310</v>
       </c>
       <c r="B337" s="26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -12806,15 +12807,15 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B339" s="17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B340" s="12" t="s">
         <v>197</v>
@@ -12822,7 +12823,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B341" s="12" t="s">
         <v>254</v>
@@ -12830,7 +12831,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B342" s="12" t="s">
         <v>202</v>
@@ -12846,7 +12847,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B344" s="17" t="s">
         <v>152</v>
@@ -12854,7 +12855,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B345" s="12" t="s">
         <v>178</v>
@@ -12862,7 +12863,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B346" s="12" t="s">
         <v>221</v>
@@ -12870,15 +12871,15 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B348" s="12" t="s">
         <v>146</v>
@@ -12886,7 +12887,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="12" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B349" s="23" t="s">
         <v>146</v>
@@ -12897,12 +12898,12 @@
         <v>96</v>
       </c>
       <c r="B350" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B351" s="17" t="s">
         <v>246</v>
@@ -12913,7 +12914,7 @@
         <v>314</v>
       </c>
       <c r="B352" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -12921,12 +12922,12 @@
         <v>316</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B354" s="17" t="s">
         <v>148</v>
@@ -12937,12 +12938,12 @@
         <v>107</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>250</v>
@@ -12950,23 +12951,23 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B357" s="17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B358" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B359" s="12" t="s">
         <v>139</v>
@@ -12974,15 +12975,15 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B360" s="12" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B361" s="26" t="s">
         <v>158</v>
@@ -12990,7 +12991,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="12" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B362" s="12" t="s">
         <v>231</v>
@@ -12998,7 +12999,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B363" s="17" t="s">
         <v>248</v>
@@ -13006,23 +13007,23 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="12" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B364" s="12" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B365" s="12" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B366" s="17" t="s">
         <v>229</v>
@@ -13030,7 +13031,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B367" s="12" t="s">
         <v>189</v>
@@ -13041,7 +13042,7 @@
         <v>306</v>
       </c>
       <c r="B368" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -13054,7 +13055,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B370" s="12" t="s">
         <v>136</v>
@@ -13062,7 +13063,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B371" s="12" t="s">
         <v>149</v>
@@ -13070,7 +13071,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>140</v>
@@ -13081,12 +13082,12 @@
         <v>109</v>
       </c>
       <c r="B373" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B374" s="12" t="s">
         <v>200</v>
@@ -13097,7 +13098,7 @@
         <v>100</v>
       </c>
       <c r="B375" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -13110,7 +13111,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="12" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B377" s="17" t="s">
         <v>182</v>
@@ -13118,7 +13119,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B378" s="12" t="s">
         <v>210</v>
@@ -13126,7 +13127,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B379" s="12" t="s">
         <v>211</v>
@@ -13134,7 +13135,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B380" s="12" t="s">
         <v>212</v>
@@ -13142,15 +13143,15 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B381" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B382" s="12" t="s">
         <v>137</v>
@@ -13158,7 +13159,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B383" s="17" t="s">
         <v>145</v>
@@ -13166,7 +13167,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B384" s="12" t="s">
         <v>195</v>
@@ -13174,7 +13175,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B385" s="23" t="s">
         <v>132</v>
@@ -13182,7 +13183,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B386" s="12" t="s">
         <v>135</v>
@@ -13190,7 +13191,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B387" s="12" t="s">
         <v>133</v>
@@ -13198,7 +13199,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="12" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B388" s="12" t="s">
         <v>235</v>
@@ -13209,20 +13210,20 @@
         <v>102</v>
       </c>
       <c r="B389" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B390" s="12" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="12" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B391" s="12" t="s">
         <v>240</v>
@@ -13230,7 +13231,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B392" s="12" t="s">
         <v>194</v>
@@ -13238,7 +13239,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B393" s="12" t="s">
         <v>201</v>
@@ -13255,15 +13256,15 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="12" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B395" s="12" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B396" s="17" t="s">
         <v>209</v>
@@ -13271,7 +13272,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B397" s="11" t="s">
         <v>143</v>
@@ -13279,7 +13280,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B398" s="11" t="s">
         <v>191</v>
@@ -13287,15 +13288,15 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B399" s="11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B400" s="11" t="s">
         <v>218</v>
@@ -13303,18 +13304,18 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B401" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B402" s="11" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -13322,7 +13323,7 @@
         <v>116</v>
       </c>
       <c r="B403" s="11" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -13330,15 +13331,15 @@
         <v>117</v>
       </c>
       <c r="B404" s="11" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B405" s="11" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -13346,7 +13347,7 @@
         <v>119</v>
       </c>
       <c r="B406" s="11" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -13362,7 +13363,7 @@
         <v>127</v>
       </c>
       <c r="B408" s="11" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -13370,87 +13371,87 @@
         <v>128</v>
       </c>
       <c r="B409" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="38" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B410" s="34" t="s">
         <v>1129</v>
-      </c>
-      <c r="B410" s="34" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B411" s="34" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="38" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B412" s="34" t="s">
         <v>1132</v>
-      </c>
-      <c r="B412" s="34" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="38" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B413" s="34" t="s">
         <v>1134</v>
-      </c>
-      <c r="B413" s="34" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B414" s="34" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B415" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="38" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B416" s="34" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="38" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B417" s="34" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="38" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B418" s="34" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="38" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B419" s="34" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -13458,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="B420" s="34" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -13466,15 +13467,15 @@
         <v>3</v>
       </c>
       <c r="B421" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="38" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B422" s="34" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -13482,7 +13483,7 @@
         <v>6</v>
       </c>
       <c r="B423" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -13490,7 +13491,7 @@
         <v>12</v>
       </c>
       <c r="B424" s="34" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -13498,7 +13499,7 @@
         <v>24</v>
       </c>
       <c r="B425" s="34" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -13506,23 +13507,23 @@
         <v>72</v>
       </c>
       <c r="B426" s="34" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B427" s="34" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="38" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B428" s="34" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -13530,1749 +13531,1749 @@
         <v>1</v>
       </c>
       <c r="B429" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="38" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B430" s="34" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="38" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B431" s="34" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="38" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B432" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B433" s="34" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="38" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B434" s="34" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="38" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B435" s="34" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="38" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B436" s="34" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="38" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B437" s="34" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B438" s="34" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B439" s="34" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B440" s="34" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B441" s="34" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B442" s="34" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B443" s="34" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B444" s="34" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B445" s="40" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="38" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B446" s="34" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B447" s="34" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B448" s="34" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B449" s="34" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B450" s="34" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B451" s="34" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B452" s="33" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B453" s="33" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B454" s="34" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B455" s="34" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B456" s="34" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="38" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B457" s="34" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B458" s="34" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B459" s="34" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B460" s="34" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B461" s="34" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="38" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B462" s="34" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="38" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B463" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="38" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B464" s="34" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="38" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B465" s="34" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="38" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B466" s="34" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B467" s="33" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B468" s="33" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B469" s="33" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B470" s="33" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="38" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B471" s="34" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="38" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B472" s="34" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B473" s="33" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B474" s="33" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B475" s="33" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B476" s="33" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B477" s="34" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="38" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B478" s="34" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="38" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B479" s="34" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="38" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B480" s="40" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="38" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B481" s="34" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B482" s="34" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B483" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B484" s="34" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="38" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B485" s="34" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="38" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B486" s="34" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B487" s="34" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="38" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B488" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="38" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B489" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="38" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B490" s="33" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B491" s="33" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="38" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B492" s="33" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="38" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B493" s="34" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="38" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B494" s="34" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="38" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B495" s="34" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B496" s="34" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="38" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B497" s="34" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="38" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B498" s="33" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="38" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B499" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="38" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B500" s="34" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="38" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B501" s="34" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B502" s="34" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="38" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B503" s="34" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="38" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B504" s="34" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="38" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B505" s="34" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="38" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B506" s="34" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="38" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B507" s="34" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B508" s="34" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B509" s="34" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="38" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B510" s="34" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B511" s="33" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B512" s="33" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B513" s="34" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="38" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B514" s="34" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B515" s="34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="38" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B516" s="34" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="38" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B517" s="34" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="38" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B518" s="34" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="38" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B519" s="34" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="38" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B520" s="34" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="38" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B521" s="33" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="38" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B522" s="33" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="38" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B523" s="33" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="38" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B524" s="33" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="38" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B525" s="33" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="38" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B526" s="33" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="38" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B527" s="33" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="38" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B528" s="33" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="38" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B529" s="34" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B530" s="34" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B531" s="34" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="38" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B532" s="33" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B533" s="33" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="38" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B534" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="38" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B535" s="33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="38" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B536" s="33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="38" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B537" s="33" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="38" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B538" s="38" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="38" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B539" s="33" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B540" s="34" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="38" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B541" s="33" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B542" s="34" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="34" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B543" s="34" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="34" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B544" s="34" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B545" s="34" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B546" s="34" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="38" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B547" s="34" t="s">
         <v>1253</v>
-      </c>
-      <c r="B547" s="34" t="s">
-        <v>1254</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="38" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B548" s="34" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="38" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B549" s="34" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B550" s="34" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B551" s="34" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="38" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B552" s="34" t="s">
         <v>1259</v>
-      </c>
-      <c r="B552" s="34" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B553" s="34" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="38" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B554" s="34" t="s">
         <v>1262</v>
-      </c>
-      <c r="B554" s="34" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B555" s="34" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="38" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B556" s="34" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="38" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B557" s="34" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B558" s="34" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B559" s="34" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="38" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B560" s="34" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B561" s="34" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="38" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B562" s="34" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="38" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B563" s="34" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="38" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B564" s="34" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="38" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B565" s="34" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="38" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B566" s="34" t="s">
         <v>1274</v>
-      </c>
-      <c r="B566" s="34" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="38" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B567" s="34" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="38" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B568" s="34" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B569" s="34" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="38" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B570" s="34" t="s">
         <v>1278</v>
-      </c>
-      <c r="B570" s="34" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B571" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="38" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B572" s="34" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="38" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B573" s="34" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="38" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B574" s="34" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="38" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B575" s="34" t="s">
         <v>1284</v>
-      </c>
-      <c r="B575" s="34" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="38" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B576" s="34" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="38" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B577" s="34" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B578" s="34" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B579" s="34"/>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="38" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B580" s="34" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="38" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B581" s="34" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="38" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B582" s="34" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="38" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B583" s="34" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="38" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B584" s="34" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="38" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B585" s="33" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="38" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B586" s="33" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="38" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B587" s="33" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="38" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B588" s="33" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="38" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B589" s="33" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="38" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B590" s="34" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="38" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B591" s="33" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="38" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B592" s="33" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="38" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B593" s="33" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="34" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B594" s="33" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="34" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B595" s="33" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B596" s="34" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="38" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B597" s="34" t="s">
         <v>1303</v>
-      </c>
-      <c r="B597" s="34" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B598" s="34" t="s">
         <v>1305</v>
-      </c>
-      <c r="B598" s="34" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="38" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B599" s="34" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="38" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B600" s="34" t="s">
         <v>1308</v>
-      </c>
-      <c r="B600" s="34" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="38" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B601" s="34" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="38" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B602" s="34" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="38" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B603" s="34" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="38" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B604" s="34" t="s">
         <v>1313</v>
-      </c>
-      <c r="B604" s="34" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="38" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B605" s="34" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="38" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B606" s="34" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="38" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B607" s="34" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="38" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B608" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="38" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B609" s="34" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="38" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B610" s="34" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="38" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B611" s="34" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="38" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B612" s="34" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="38" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B613" s="34" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="38" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B614" s="34" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="38" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B615" s="34" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="38" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B616" s="34" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="38" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B617" s="34" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="38" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B618" s="34" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="38" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B619" s="34" t="s">
         <v>1328</v>
-      </c>
-      <c r="B619" s="34" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="38" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B620" s="34" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="38" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B621" s="34" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="38" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B622" s="34" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="38" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B623" s="34" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="38" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B624" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="38" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B625" s="38" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="38" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B626" s="34" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="38" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B627" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="38" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B628" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="38" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B629" s="34" t="s">
         <v>1335</v>
-      </c>
-      <c r="B629" s="34" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="38" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B630" s="34" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="38" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B631" s="34" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="38" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B632" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="38" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B633" s="34" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="38" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B634" s="34" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="38" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B635" s="34" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="38" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B636" s="34" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="38" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B637" s="34" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="38" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B638" s="34" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="38" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B639" s="38" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="38" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B640" s="34" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="38" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B641" s="33" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="38" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B642" s="38" t="s">
         <v>1348</v>
-      </c>
-      <c r="B642" s="38" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="38" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B643" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="38" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B644" s="34" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="38" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B645" s="34" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="38" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B646" s="34" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="38" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B647" s="34" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -15280,7 +15281,7 @@
         <v>31</v>
       </c>
       <c r="B648" s="34" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -15288,7 +15289,7 @@
         <v>60</v>
       </c>
       <c r="B649" s="34" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -15296,7 +15297,7 @@
         <v>61</v>
       </c>
       <c r="B650" s="34" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -15304,260 +15305,260 @@
         <v>120</v>
       </c>
       <c r="B651" s="34" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="38" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B652" s="34" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="38" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B653" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="38" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B654" s="34" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="38" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B655" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="38" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B656" s="34" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B657" s="11" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B658" s="11" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B659" s="41" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B660" s="11" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B661" s="11" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B662" s="11" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B663" s="11" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B664" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="6" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B666" s="11" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B667" s="11" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B668" s="11" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B669" s="11" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B670" s="11" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B671" s="11" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B672" s="11" t="s">
         <v>1375</v>
-      </c>
-      <c r="B672" s="11" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B673" s="11" t="s">
         <v>1377</v>
-      </c>
-      <c r="B673" s="11" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B675" s="11" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B676" s="11" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B677" s="11" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B678" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B679" s="11" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B680" s="11" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B681" s="11" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B682" s="11" t="s">
         <v>1385</v>
-      </c>
-      <c r="B682" s="11" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B683" s="11" t="s">
         <v>257</v>
@@ -15565,161 +15566,161 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B684" s="11"/>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B685" s="11"/>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B686" s="11"/>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B687" s="11"/>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B688" s="11" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B689" s="11" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B690" s="11"/>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B691" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B692" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B693" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B694" s="5" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B695" s="5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B696" s="5" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B697" s="11"/>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B698" s="11"/>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B699" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B700" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B701" s="5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B702" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B703" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B704" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="B705" s="5" t="s">
         <v>252</v>
@@ -15727,143 +15728,143 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B706" s="5" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="37" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B707" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="37" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B708" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="37" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="37" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B710" s="5" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="37" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B711" s="5" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="10" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="10" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B714" s="5" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B715" s="5" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B716" s="42" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B717" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B718" s="42" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B719" s="42" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B720" s="42" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B721" s="42" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="37" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B722" s="42" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B723" s="42" t="s">
         <v>225</v>
@@ -15871,87 +15872,87 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="37" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B724" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="37" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B725" s="42" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="37" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B726" s="43" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B727" s="42" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="B728" s="42" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B729" s="42" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="37" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B730" s="42" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B731" s="42" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B732" s="42" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="37" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B733" s="42" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="37" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B734" s="42" t="s">
         <v>261</v>
@@ -15959,18 +15960,18 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="37" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B735" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="37" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B736" s="42" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
@@ -15979,47 +15980,47 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="37" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B738" s="42" t="s">
         <v>1042</v>
-      </c>
-      <c r="B738" s="42" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="37" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B739" s="42" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="37" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B740" s="42" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="37" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B741" s="42" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="37" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B742" s="42" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="37" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B743" s="42" t="s">
         <v>146</v>
@@ -16027,7 +16028,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B744" s="42" t="s">
         <v>262</v>
@@ -16035,18 +16036,18 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B745" s="42" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B746" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -16062,8 +16063,8 @@
   </sheetPr>
   <dimension ref="A1:CC106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="I107" sqref="I107"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16082,10 +16083,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -16103,13 +16104,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="I1" s="79" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>1</v>
       </c>
@@ -16133,13 +16134,13 @@
         <v>423901009</v>
       </c>
       <c r="H2" s="80" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I2" s="78" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -16150,7 +16151,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E3" s="71" t="s">
         <v>6</v>
@@ -16163,10 +16164,10 @@
         <v>423901009</v>
       </c>
       <c r="H3" s="81" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I3" s="79" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16193,10 +16194,10 @@
         <v>423901009</v>
       </c>
       <c r="H4" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I4" s="78" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16210,7 +16211,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E5" s="72" t="s">
         <v>15</v>
@@ -16220,10 +16221,10 @@
         <v>insurance status</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>1512</v>
+        <v>1485</v>
       </c>
       <c r="I5" s="79" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16250,10 +16251,10 @@
         <v>398174006</v>
       </c>
       <c r="H6" s="80" t="s">
-        <v>1512</v>
+        <v>1485</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16280,10 +16281,10 @@
         <v>371484003</v>
       </c>
       <c r="H7" s="81" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I7" s="79" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16310,10 +16311,10 @@
         <v>184097001</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I8" s="78" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16340,10 +16341,10 @@
         <v>184097001</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>1501</v>
+        <v>1485</v>
       </c>
       <c r="I9" s="79" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16370,10 +16371,10 @@
         <v>184097001</v>
       </c>
       <c r="H10" s="80" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I10" s="78" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16400,10 +16401,10 @@
         <v>184097001</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16414,25 +16415,25 @@
         <v>59</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D12" s="49" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="70" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F12" s="74" t="s">
         <v>1063</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>1064</v>
       </c>
       <c r="G12" s="78">
         <v>184099003</v>
       </c>
       <c r="H12" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I12" s="78" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16459,13 +16460,13 @@
         <v>273729003</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I13" s="79" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49">
         <v>13</v>
       </c>
@@ -16489,13 +16490,13 @@
         <v>184100006</v>
       </c>
       <c r="H14" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I14" s="78" t="s">
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -16519,13 +16520,13 @@
         <v>399423000</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I15" s="79" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>15</v>
       </c>
@@ -16549,13 +16550,13 @@
         <v>305056002</v>
       </c>
       <c r="H16" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I16" s="78" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -16569,22 +16570,22 @@
         <v>64</v>
       </c>
       <c r="E17" s="72" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F17" s="73" t="s">
         <v>1476</v>
-      </c>
-      <c r="F17" s="73" t="s">
-        <v>1477</v>
       </c>
       <c r="G17" s="72">
         <v>77386006</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="49">
         <v>17</v>
       </c>
@@ -16608,13 +16609,13 @@
         <v>127786006</v>
       </c>
       <c r="H18" s="80" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -16637,13 +16638,13 @@
         <v>40174006</v>
       </c>
       <c r="H19" s="81" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="49">
         <v>19</v>
       </c>
@@ -16667,10 +16668,10 @@
         <v>40174006</v>
       </c>
       <c r="H20" s="80" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I20" s="78" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16697,10 +16698,10 @@
         <v>86290005</v>
       </c>
       <c r="H21" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16727,10 +16728,10 @@
         <v>103228002</v>
       </c>
       <c r="H22" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I22" s="78" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16741,7 +16742,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>86</v>
@@ -16757,10 +16758,10 @@
         <v>271649006</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I23" s="72" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16787,10 +16788,10 @@
         <v>364075005</v>
       </c>
       <c r="H24" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I24" s="78" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16817,10 +16818,10 @@
         <v>281395000</v>
       </c>
       <c r="H25" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I25" s="72" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16847,10 +16848,10 @@
         <v>281397008</v>
       </c>
       <c r="H26" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I26" s="78" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16877,10 +16878,10 @@
         <v>281396004</v>
       </c>
       <c r="H27" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I27" s="72" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16907,10 +16908,10 @@
         <v>386554004</v>
       </c>
       <c r="H28" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I28" s="78" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -16937,10 +16938,10 @@
         <v>246095009</v>
       </c>
       <c r="H29" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I29" s="72" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16967,10 +16968,10 @@
         <v>271733001</v>
       </c>
       <c r="H30" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I30" s="78" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -16997,10 +16998,10 @@
         <v>276885007</v>
       </c>
       <c r="H31" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I31" s="72" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -17027,13 +17028,13 @@
         <v>22253000</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I32" s="78" t="s">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -17057,10 +17058,10 @@
         <v>427675001</v>
       </c>
       <c r="H33" s="81" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I33" s="72" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -17074,13 +17075,13 @@
         <v>324</v>
       </c>
       <c r="D34" s="49" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E34" s="70" t="s">
         <v>1492</v>
       </c>
-      <c r="E34" s="70" t="s">
-        <v>1493</v>
-      </c>
       <c r="F34" s="74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G34" s="70">
         <v>427675001</v>
@@ -17089,10 +17090,10 @@
         <v>23</v>
       </c>
       <c r="I34" s="78" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -17100,10 +17101,10 @@
         <v>770</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E35" s="68" t="s">
         <v>120</v>
@@ -17116,13 +17117,13 @@
         <v>410670007</v>
       </c>
       <c r="H35" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I35" s="72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="49">
         <v>35</v>
       </c>
@@ -17130,28 +17131,28 @@
         <v>23</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D36" s="49" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="G36" s="70">
         <v>884001</v>
       </c>
       <c r="H36" s="80" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I36" s="78" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -17165,7 +17166,7 @@
         <v>328</v>
       </c>
       <c r="E37" s="72" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F37" s="73" t="str">
         <f>IF(E37&lt;&gt;"",VLOOKUP(E37,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17175,13 +17176,13 @@
         <v>261004008</v>
       </c>
       <c r="H37" s="81" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I37" s="81" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="49">
         <v>37</v>
       </c>
@@ -17195,7 +17196,7 @@
         <v>330</v>
       </c>
       <c r="E38" s="52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F38" s="74" t="str">
         <f>IF(E38&lt;&gt;"",VLOOKUP(E38,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17205,13 +17206,13 @@
         <v>422813005</v>
       </c>
       <c r="H38" s="80" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I38" s="80" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -17225,7 +17226,7 @@
         <v>332</v>
       </c>
       <c r="E39" s="72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F39" s="73" t="str">
         <f>IF(E39&lt;&gt;"",VLOOKUP(E39,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17235,13 +17236,13 @@
         <v>422813005</v>
       </c>
       <c r="H39" s="81" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="I39" s="81" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="49">
         <v>39</v>
       </c>
@@ -17255,7 +17256,7 @@
         <v>334</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F40" s="74" t="str">
         <f>IF(E40&lt;&gt;"",VLOOKUP(E40,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17265,13 +17266,13 @@
         <v>422813005</v>
       </c>
       <c r="H40" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I40" s="80" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -17285,7 +17286,7 @@
         <v>336</v>
       </c>
       <c r="E41" s="71" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F41" s="73" t="str">
         <f>IF(E41&lt;&gt;"",VLOOKUP(E41,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17295,13 +17296,13 @@
         <v>422813005</v>
       </c>
       <c r="H41" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I41" s="81" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="49">
         <v>41</v>
       </c>
@@ -17315,7 +17316,7 @@
         <v>338</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F42" s="74" t="str">
         <f>IF(E42&lt;&gt;"",VLOOKUP(E42,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17325,13 +17326,13 @@
         <v>409972000</v>
       </c>
       <c r="H42" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I42" s="80" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -17345,20 +17346,20 @@
         <v>340</v>
       </c>
       <c r="E43" s="72" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F43" s="48" t="str">
         <f>IF(E43&lt;&gt;"",VLOOKUP(E43,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
         <v>batch</v>
       </c>
       <c r="H43" s="81" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I43" s="81" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="49">
         <v>43</v>
       </c>
@@ -17372,7 +17373,7 @@
         <v>342</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F44" s="74" t="str">
         <f>IF(E44&lt;&gt;"",VLOOKUP(E44,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17382,13 +17383,13 @@
         <v>422813005</v>
       </c>
       <c r="H44" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I44" s="80" t="s">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -17412,10 +17413,10 @@
         <v>609328004</v>
       </c>
       <c r="H45" s="81" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I45" s="72" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
@@ -17445,10 +17446,10 @@
         <v>23</v>
       </c>
       <c r="I46" s="78" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
@@ -17472,13 +17473,13 @@
         <v>609328004</v>
       </c>
       <c r="H47" s="81" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I47" s="72" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="49">
         <v>47</v>
       </c>
@@ -17502,13 +17503,13 @@
         <v>293637006</v>
       </c>
       <c r="H48" s="80" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I48" s="78" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="49" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>48</v>
       </c>
@@ -17532,10 +17533,10 @@
         <v>609328004</v>
       </c>
       <c r="H49" s="81" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I49" s="72" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="50" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
@@ -17546,16 +17547,16 @@
         <v>36</v>
       </c>
       <c r="C50" s="49" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D50" s="49" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="70" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F50" s="74" t="s">
         <v>1061</v>
-      </c>
-      <c r="F50" s="74" t="s">
-        <v>1062</v>
       </c>
       <c r="G50" s="70">
         <v>413320001</v>
@@ -17564,10 +17565,10 @@
         <v>23</v>
       </c>
       <c r="I50" s="78" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="51" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>50</v>
       </c>
@@ -17575,13 +17576,13 @@
         <v>212</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="E51" s="71" t="s">
         <v>355</v>
-      </c>
-      <c r="E51" s="71" t="s">
-        <v>356</v>
       </c>
       <c r="F51" s="73" t="str">
         <f>IF(E51&lt;&gt;"",VLOOKUP(E51,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17591,10 +17592,10 @@
         <v>267022002</v>
       </c>
       <c r="H51" s="81" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="I51" s="72" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="52" spans="1:81" x14ac:dyDescent="0.25">
@@ -17605,13 +17606,13 @@
         <v>37</v>
       </c>
       <c r="C52" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="D52" s="49" t="s">
-        <v>359</v>
-      </c>
       <c r="E52" s="70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F52" s="74" t="str">
         <f>IF(E52&lt;&gt;"",VLOOKUP(E52,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17621,7 +17622,7 @@
         <v>304562007</v>
       </c>
       <c r="H52" s="80" t="s">
-        <v>120</v>
+        <v>1501</v>
       </c>
       <c r="I52" s="78" t="s">
         <v>120</v>
@@ -17635,13 +17636,13 @@
         <v>38</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="E53" s="72" t="s">
         <v>361</v>
-      </c>
-      <c r="E53" s="72" t="s">
-        <v>362</v>
       </c>
       <c r="F53" s="73" t="str">
         <f>IF(E53&lt;&gt;"",VLOOKUP(E53,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17651,7 +17652,7 @@
         <v>413946009</v>
       </c>
       <c r="H53" s="81" t="s">
-        <v>120</v>
+        <v>1501</v>
       </c>
       <c r="I53" s="72" t="s">
         <v>120</v>
@@ -17665,13 +17666,13 @@
         <v>40</v>
       </c>
       <c r="C54" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="D54" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="D54" s="49" t="s">
-        <v>364</v>
-      </c>
       <c r="E54" s="70" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F54" s="74" t="str">
         <f>IF(E54&lt;&gt;"",VLOOKUP(E54,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17684,7 +17685,7 @@
         <v>23</v>
       </c>
       <c r="I54" s="78" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="55" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
@@ -17695,13 +17696,13 @@
         <v>41</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>366</v>
-      </c>
       <c r="E55" s="72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F55" s="73" t="str">
         <f>IF(E55&lt;&gt;"",VLOOKUP(E55,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17714,7 +17715,7 @@
         <v>23</v>
       </c>
       <c r="I55" s="79" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="56" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
@@ -17725,13 +17726,13 @@
         <v>46</v>
       </c>
       <c r="C56" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="D56" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="E56" s="70" t="s">
         <v>375</v>
-      </c>
-      <c r="E56" s="70" t="s">
-        <v>376</v>
       </c>
       <c r="F56" s="74" t="s">
         <v>263</v>
@@ -17743,10 +17744,10 @@
         <v>23</v>
       </c>
       <c r="I56" s="78" t="s">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="57" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>56</v>
       </c>
@@ -17754,13 +17755,13 @@
         <v>42</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D57" s="8" t="s">
-        <v>379</v>
-      </c>
       <c r="E57" s="71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F57" s="73" t="str">
         <f>IF(E57&lt;&gt;"",VLOOKUP(E57,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17770,13 +17771,13 @@
         <v>89100005</v>
       </c>
       <c r="H57" s="81" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="I57" s="79" t="s">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="58" spans="1:81" x14ac:dyDescent="0.25">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:81" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="49">
         <v>57</v>
       </c>
@@ -17784,38 +17785,38 @@
         <v>44</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="D58" s="49" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E58" s="70" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="F58" s="74" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G58" s="70"/>
       <c r="H58" s="80" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I58" s="78" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="59" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+      <c r="A59" s="83">
         <v>58</v>
       </c>
       <c r="B59" s="85"/>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="83" t="s">
+        <v>379</v>
+      </c>
+      <c r="D59" s="83" t="s">
         <v>380</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="E59" s="71" t="s">
         <v>381</v>
-      </c>
-      <c r="E59" s="71" t="s">
-        <v>382</v>
       </c>
       <c r="F59" s="73" t="str">
         <f>IF(E59&lt;&gt;"",VLOOKUP(E59,'DE-EN'!$A$2:$B$536,2,FALSE),"")</f>
@@ -17824,14 +17825,17 @@
       <c r="G59" s="79">
         <v>413947000</v>
       </c>
-      <c r="H59" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="I59" s="82" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:81" s="50" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H59" s="84" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I59" s="77" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J59" s="86" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="60" spans="1:81" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49">
         <v>59</v>
       </c>
@@ -17839,10 +17843,10 @@
         <v>804</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D60" s="45" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E60" s="53" t="s">
         <v>326</v>
@@ -17855,10 +17859,10 @@
         <v>273887006</v>
       </c>
       <c r="H60" s="50" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="I60" s="50" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J60" s="82"/>
       <c r="K60" s="82"/>
@@ -17933,7 +17937,7 @@
       <c r="CB60" s="82"/>
       <c r="CC60" s="82"/>
     </row>
-    <row r="61" spans="1:81" s="54" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:81" s="54" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>60</v>
       </c>
@@ -17941,13 +17945,13 @@
         <v>805</v>
       </c>
       <c r="C61" s="44" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D61" s="44" t="s">
         <v>1410</v>
       </c>
-      <c r="D61" s="44" t="s">
-        <v>1411</v>
-      </c>
       <c r="E61" s="55" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F61" s="54" t="str">
         <f>IF(E61&lt;&gt;"",VLOOKUP(E61,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -17957,10 +17961,10 @@
         <v>409586006</v>
       </c>
       <c r="H61" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="I61" s="82" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="J61" s="82"/>
       <c r="K61" s="82"/>
@@ -18035,7 +18039,7 @@
       <c r="CB61" s="82"/>
       <c r="CC61" s="82"/>
     </row>
-    <row r="62" spans="1:81" s="50" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:81" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49">
         <v>61</v>
       </c>
@@ -18043,23 +18047,23 @@
         <v>806</v>
       </c>
       <c r="C62" s="56" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F62" s="50" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="G62" s="53"/>
       <c r="H62" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I62" s="50" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J62" s="82"/>
       <c r="K62" s="82"/>
@@ -18134,7 +18138,7 @@
       <c r="CB62" s="82"/>
       <c r="CC62" s="82"/>
     </row>
-    <row r="63" spans="1:81" s="58" customFormat="1" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:81" s="58" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>62</v>
       </c>
@@ -18142,22 +18146,22 @@
         <v>807</v>
       </c>
       <c r="C63" s="46" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D63" s="46" t="s">
         <v>1413</v>
       </c>
-      <c r="D63" s="46" t="s">
-        <v>1414</v>
-      </c>
       <c r="E63" s="58" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F63" s="58" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H63" s="64" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I63" s="64" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J63" s="64"/>
       <c r="K63" s="64"/>
@@ -18232,7 +18236,7 @@
       <c r="CB63" s="64"/>
       <c r="CC63" s="64"/>
     </row>
-    <row r="64" spans="1:81" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:81" s="50" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="49">
         <v>63</v>
       </c>
@@ -18240,10 +18244,10 @@
         <v>808</v>
       </c>
       <c r="C64" s="45" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D64" s="45" t="s">
         <v>1415</v>
-      </c>
-      <c r="D64" s="45" t="s">
-        <v>1416</v>
       </c>
       <c r="E64" s="53" t="s">
         <v>13</v>
@@ -18256,10 +18260,10 @@
         <v>116154003</v>
       </c>
       <c r="H64" s="50" t="s">
-        <v>1504</v>
+        <v>1485</v>
       </c>
       <c r="I64" s="50" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="J64" s="82"/>
       <c r="K64" s="82"/>
@@ -18334,7 +18338,7 @@
       <c r="CB64" s="82"/>
       <c r="CC64" s="82"/>
     </row>
-    <row r="65" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:81" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>64</v>
       </c>
@@ -18342,10 +18346,10 @@
         <v>882</v>
       </c>
       <c r="C65" s="47" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D65" s="47" t="s">
         <v>1417</v>
-      </c>
-      <c r="D65" s="47" t="s">
-        <v>1418</v>
       </c>
       <c r="E65" s="58" t="s">
         <v>62</v>
@@ -18358,7 +18362,7 @@
         <v>410670007</v>
       </c>
       <c r="H65" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I65" s="82" t="s">
         <v>120</v>
@@ -18436,7 +18440,7 @@
       <c r="CB65" s="82"/>
       <c r="CC65" s="82"/>
     </row>
-    <row r="66" spans="1:81" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:81" s="50" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49">
         <v>65</v>
       </c>
@@ -18444,17 +18448,17 @@
         <v>882</v>
       </c>
       <c r="C66" s="45" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D66" s="45" t="s">
         <v>1419</v>
       </c>
-      <c r="D66" s="45" t="s">
-        <v>1420</v>
-      </c>
       <c r="E66" s="59" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G66" s="53"/>
       <c r="H66" s="50" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I66" s="50" t="s">
         <v>120</v>
@@ -18532,7 +18536,7 @@
       <c r="CB66" s="82"/>
       <c r="CC66" s="82"/>
     </row>
-    <row r="67" spans="1:81" s="54" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:81" s="54" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>66</v>
       </c>
@@ -18540,13 +18544,13 @@
         <v>884</v>
       </c>
       <c r="C67" s="44" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D67" s="44" t="s">
         <v>1421</v>
       </c>
-      <c r="D67" s="44" t="s">
-        <v>1422</v>
-      </c>
       <c r="E67" s="55" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F67" s="54" t="str">
         <f>IF(E67&lt;&gt;"",VLOOKUP(E67,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -18556,10 +18560,10 @@
         <v>36030000</v>
       </c>
       <c r="H67" s="82" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I67" s="82" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J67" s="82"/>
       <c r="K67" s="82"/>
@@ -18634,7 +18638,7 @@
       <c r="CB67" s="82"/>
       <c r="CC67" s="82"/>
     </row>
-    <row r="68" spans="1:81" s="53" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:81" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49">
         <v>67</v>
       </c>
@@ -18642,13 +18646,13 @@
         <v>885</v>
       </c>
       <c r="C68" s="60" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D68" s="60" t="s">
         <v>1423</v>
       </c>
-      <c r="D68" s="60" t="s">
-        <v>1424</v>
-      </c>
       <c r="E68" s="53" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F68" s="53" t="str">
         <f>IF(E68&lt;&gt;"",VLOOKUP(E68,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -18658,10 +18662,10 @@
         <v>15220000</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I68" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J68" s="64"/>
       <c r="K68" s="64"/>
@@ -18736,7 +18740,7 @@
       <c r="CB68" s="64"/>
       <c r="CC68" s="64"/>
     </row>
-    <row r="69" spans="1:81" s="3" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:81" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>68</v>
       </c>
@@ -18744,13 +18748,13 @@
         <v>886</v>
       </c>
       <c r="C69" s="47" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="D69" s="47" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E69" s="58" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F69" s="3" t="str">
         <f>IF(E69&lt;&gt;"",VLOOKUP(E69,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -18760,10 +18764,10 @@
         <v>15220000</v>
       </c>
       <c r="H69" s="82" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I69" s="64" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J69" s="82"/>
       <c r="K69" s="82"/>
@@ -18846,13 +18850,13 @@
         <v>887</v>
       </c>
       <c r="C70" s="45" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D70" s="45" t="s">
         <v>1426</v>
       </c>
-      <c r="D70" s="45" t="s">
-        <v>1427</v>
-      </c>
       <c r="E70" s="53" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F70" s="50" t="str">
         <f>IF(E70&lt;&gt;"",VLOOKUP(E70,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -18862,10 +18866,10 @@
         <v>15220000</v>
       </c>
       <c r="H70" s="50" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I70" s="50" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J70" s="82"/>
       <c r="K70" s="82"/>
@@ -18940,7 +18944,7 @@
       <c r="CB70" s="82"/>
       <c r="CC70" s="82"/>
     </row>
-    <row r="71" spans="1:81" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:81" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>70</v>
       </c>
@@ -18948,13 +18952,13 @@
         <v>784</v>
       </c>
       <c r="C71" s="47" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D71" s="47" t="s">
         <v>1428</v>
       </c>
-      <c r="D71" s="47" t="s">
-        <v>1429</v>
-      </c>
       <c r="E71" s="58" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F71" s="3" t="str">
         <f>IF(E71&lt;&gt;"",VLOOKUP(E71,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -18964,10 +18968,10 @@
         <v>113091000</v>
       </c>
       <c r="H71" s="82" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I71" s="64" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J71" s="82"/>
       <c r="K71" s="82"/>
@@ -19042,7 +19046,7 @@
       <c r="CB71" s="82"/>
       <c r="CC71" s="82"/>
     </row>
-    <row r="72" spans="1:81" s="77" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:81" s="77" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49">
         <v>71</v>
       </c>
@@ -19050,17 +19054,17 @@
         <v>906</v>
       </c>
       <c r="C72" s="45" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D72" s="45"/>
       <c r="E72" s="53"/>
       <c r="F72" s="53"/>
       <c r="G72" s="78"/>
       <c r="H72" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I72" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J72" s="82"/>
       <c r="K72" s="82"/>
@@ -19143,13 +19147,13 @@
         <v>785</v>
       </c>
       <c r="C73" s="63" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D73" s="63" t="s">
         <v>1432</v>
       </c>
-      <c r="D73" s="63" t="s">
-        <v>1433</v>
-      </c>
       <c r="E73" s="53" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F73" s="50" t="str">
         <f>IF(E73&lt;&gt;"",VLOOKUP(E73,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -19159,10 +19163,10 @@
         <v>113091000</v>
       </c>
       <c r="H73" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I73" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J73" s="82"/>
       <c r="K73" s="82"/>
@@ -19237,7 +19241,7 @@
       <c r="CB73" s="82"/>
       <c r="CC73" s="82"/>
     </row>
-    <row r="74" spans="1:81" s="3" customFormat="1" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:81" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49">
         <v>73</v>
       </c>
@@ -19245,13 +19249,13 @@
         <v>888</v>
       </c>
       <c r="C74" s="45" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D74" s="45" t="s">
         <v>1430</v>
       </c>
-      <c r="D74" s="45" t="s">
-        <v>1431</v>
-      </c>
       <c r="E74" s="53" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F74" s="50" t="str">
         <f>IF(E74&lt;&gt;"",VLOOKUP(E74,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -19261,10 +19265,10 @@
         <v>278297009</v>
       </c>
       <c r="H74" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I74" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J74" s="82"/>
       <c r="K74" s="82"/>
@@ -19339,7 +19343,7 @@
       <c r="CB74" s="82"/>
       <c r="CC74" s="82"/>
     </row>
-    <row r="75" spans="1:81" s="50" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:81" s="50" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>74</v>
       </c>
@@ -19347,13 +19351,13 @@
         <v>889</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D75" s="63" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E75" s="53" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F75" s="50" t="str">
         <f>IF(E75&lt;&gt;"",VLOOKUP(E75,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -19363,10 +19367,10 @@
         <v>278297009</v>
       </c>
       <c r="H75" s="82" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I75" s="64" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J75" s="82"/>
       <c r="K75" s="82"/>
@@ -19449,13 +19453,13 @@
         <v>890</v>
       </c>
       <c r="C76" s="45" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D76" s="45" t="s">
         <v>1435</v>
       </c>
-      <c r="D76" s="45" t="s">
-        <v>1436</v>
-      </c>
       <c r="E76" s="53" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F76" s="50" t="str">
         <f>IF(E76&lt;&gt;"",VLOOKUP(E76,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -19465,10 +19469,10 @@
         <v>278297009</v>
       </c>
       <c r="H76" s="50" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I76" s="50" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J76" s="82"/>
       <c r="K76" s="82"/>
@@ -19543,7 +19547,7 @@
       <c r="CB76" s="82"/>
       <c r="CC76" s="82"/>
     </row>
-    <row r="77" spans="1:81" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:81" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>76</v>
       </c>
@@ -19551,13 +19555,13 @@
         <v>891</v>
       </c>
       <c r="C77" s="63" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D77" s="63" t="s">
         <v>1437</v>
       </c>
-      <c r="D77" s="63" t="s">
-        <v>1438</v>
-      </c>
       <c r="E77" s="53" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F77" s="50" t="str">
         <f>IF(E77&lt;&gt;"",VLOOKUP(E77,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -19565,10 +19569,10 @@
       </c>
       <c r="G77" s="53"/>
       <c r="H77" s="82" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I77" s="64" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J77" s="82"/>
       <c r="K77" s="82"/>
@@ -19643,7 +19647,7 @@
       <c r="CB77" s="82"/>
       <c r="CC77" s="82"/>
     </row>
-    <row r="78" spans="1:81" s="54" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:81" s="54" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49">
         <v>77</v>
       </c>
@@ -19651,13 +19655,13 @@
         <v>889</v>
       </c>
       <c r="C78" s="45" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D78" s="45" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E78" s="53" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F78" s="50" t="str">
         <f>IF(E78&lt;&gt;"",VLOOKUP(E78,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -19665,10 +19669,10 @@
       </c>
       <c r="G78" s="53"/>
       <c r="H78" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I78" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J78" s="82"/>
       <c r="K78" s="82"/>
@@ -19751,13 +19755,13 @@
         <v>893</v>
       </c>
       <c r="C79" s="63" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D79" s="63" t="s">
         <v>1440</v>
       </c>
-      <c r="D79" s="63" t="s">
-        <v>1441</v>
-      </c>
       <c r="E79" s="53" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F79" s="50" t="str">
         <f>IF(E79&lt;&gt;"",VLOOKUP(E79,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -19765,10 +19769,10 @@
       </c>
       <c r="G79" s="53"/>
       <c r="H79" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I79" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J79" s="82"/>
       <c r="K79" s="82"/>
@@ -19843,7 +19847,7 @@
       <c r="CB79" s="82"/>
       <c r="CC79" s="82"/>
     </row>
-    <row r="80" spans="1:81" s="3" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:81" s="3" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -19851,13 +19855,13 @@
         <v>894</v>
       </c>
       <c r="C80" s="45" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D80" s="45" t="s">
         <v>1442</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>1443</v>
-      </c>
       <c r="E80" s="53" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F80" s="50" t="str">
         <f>IF(E80&lt;&gt;"",VLOOKUP(E80,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -19867,10 +19871,10 @@
         <v>268400002</v>
       </c>
       <c r="H80" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I80" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J80" s="82"/>
       <c r="K80" s="82"/>
@@ -19945,7 +19949,7 @@
       <c r="CB80" s="82"/>
       <c r="CC80" s="82"/>
     </row>
-    <row r="81" spans="1:81" s="50" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:81" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>80</v>
       </c>
@@ -19953,13 +19957,13 @@
         <v>895</v>
       </c>
       <c r="C81" s="63" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E81" s="53" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F81" s="50" t="str">
         <f>IF(E81&lt;&gt;"",VLOOKUP(E81,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -19969,10 +19973,10 @@
         <v>268400002</v>
       </c>
       <c r="H81" s="82" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I81" s="64" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J81" s="82"/>
       <c r="K81" s="82"/>
@@ -20055,13 +20059,13 @@
         <v>896</v>
       </c>
       <c r="C82" s="45" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D82" s="45" t="s">
         <v>1445</v>
       </c>
-      <c r="D82" s="45" t="s">
-        <v>1446</v>
-      </c>
       <c r="E82" s="53" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F82" s="50" t="str">
         <f>IF(E82&lt;&gt;"",VLOOKUP(E82,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -20071,10 +20075,10 @@
         <v>268400002</v>
       </c>
       <c r="H82" s="50" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I82" s="50" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J82" s="82"/>
       <c r="K82" s="82"/>
@@ -20149,7 +20153,7 @@
       <c r="CB82" s="82"/>
       <c r="CC82" s="82"/>
     </row>
-    <row r="83" spans="1:81" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:81" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>82</v>
       </c>
@@ -20157,13 +20161,13 @@
         <v>897</v>
       </c>
       <c r="C83" s="63" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D83" s="63" t="s">
         <v>1447</v>
       </c>
-      <c r="D83" s="63" t="s">
-        <v>1448</v>
-      </c>
       <c r="E83" s="53" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F83" s="50" t="str">
         <f>IF(E83&lt;&gt;"",VLOOKUP(E83,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -20173,10 +20177,10 @@
         <v>16310003</v>
       </c>
       <c r="H83" s="82" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I83" s="64" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J83" s="82"/>
       <c r="K83" s="82"/>
@@ -20251,7 +20255,7 @@
       <c r="CB83" s="82"/>
       <c r="CC83" s="82"/>
     </row>
-    <row r="84" spans="1:81" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:81" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49">
         <v>83</v>
       </c>
@@ -20259,13 +20263,13 @@
         <v>898</v>
       </c>
       <c r="C84" s="45" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E84" s="53" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F84" s="50" t="str">
         <f>IF(E84&lt;&gt;"",VLOOKUP(E84,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -20275,10 +20279,10 @@
         <v>16310003</v>
       </c>
       <c r="H84" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I84" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J84" s="82"/>
       <c r="K84" s="82"/>
@@ -20361,16 +20365,16 @@
         <v>905</v>
       </c>
       <c r="C85" s="63" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D85" s="63"/>
       <c r="E85" s="59"/>
       <c r="G85" s="59"/>
       <c r="H85" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I85" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J85" s="82"/>
       <c r="K85" s="82"/>
@@ -20445,7 +20449,7 @@
       <c r="CB85" s="82"/>
       <c r="CC85" s="82"/>
     </row>
-    <row r="86" spans="1:81" s="50" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:81" s="50" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49">
         <v>85</v>
       </c>
@@ -20453,13 +20457,13 @@
         <v>899</v>
       </c>
       <c r="C86" s="45" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D86" s="45" t="s">
         <v>1450</v>
       </c>
-      <c r="D86" s="45" t="s">
-        <v>1451</v>
-      </c>
       <c r="E86" s="53" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F86" s="50" t="str">
         <f>IF(E86&lt;&gt;"",VLOOKUP(E86,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -20469,10 +20473,10 @@
         <v>77477000</v>
       </c>
       <c r="H86" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I86" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J86" s="82"/>
       <c r="K86" s="82"/>
@@ -20547,7 +20551,7 @@
       <c r="CB86" s="82"/>
       <c r="CC86" s="82"/>
     </row>
-    <row r="87" spans="1:81" s="3" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:81" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>86</v>
       </c>
@@ -20555,13 +20559,13 @@
         <v>900</v>
       </c>
       <c r="C87" s="47" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E87" s="58" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F87" s="3" t="str">
         <f>IF(E87&lt;&gt;"",VLOOKUP(E87,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -20571,10 +20575,10 @@
         <v>77477000</v>
       </c>
       <c r="H87" s="82" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I87" s="64" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J87" s="82"/>
       <c r="K87" s="82"/>
@@ -20657,13 +20661,13 @@
         <v>901</v>
       </c>
       <c r="C88" s="56" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D88" s="45" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E88" s="53" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F88" s="50" t="str">
         <f>IF(E88&lt;&gt;"",VLOOKUP(E88,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -20673,10 +20677,10 @@
         <v>77477000</v>
       </c>
       <c r="H88" s="50" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I88" s="50" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J88" s="82"/>
       <c r="K88" s="82"/>
@@ -20751,7 +20755,7 @@
       <c r="CB88" s="82"/>
       <c r="CC88" s="82"/>
     </row>
-    <row r="89" spans="1:81" s="54" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:81" s="54" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>88</v>
       </c>
@@ -20759,13 +20763,13 @@
         <v>902</v>
       </c>
       <c r="C89" s="44" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D89" s="44" t="s">
         <v>1454</v>
       </c>
-      <c r="D89" s="44" t="s">
-        <v>1455</v>
-      </c>
       <c r="E89" s="55" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F89" s="54" t="str">
         <f>IF(E89&lt;&gt;"",VLOOKUP(E89,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -20775,10 +20779,10 @@
         <v>40701008</v>
       </c>
       <c r="H89" s="82" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I89" s="64" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J89" s="82"/>
       <c r="K89" s="82"/>
@@ -20853,7 +20857,7 @@
       <c r="CB89" s="82"/>
       <c r="CC89" s="82"/>
     </row>
-    <row r="90" spans="1:81" s="50" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:81" s="50" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49">
         <v>89</v>
       </c>
@@ -20861,13 +20865,13 @@
         <v>903</v>
       </c>
       <c r="C90" s="45" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D90" s="45" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E90" s="53" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F90" s="50" t="str">
         <f>IF(E90&lt;&gt;"",VLOOKUP(E90,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -20877,10 +20881,10 @@
         <v>40701008</v>
       </c>
       <c r="H90" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I90" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J90" s="82"/>
       <c r="K90" s="82"/>
@@ -20963,13 +20967,13 @@
         <v>904</v>
       </c>
       <c r="C91" s="47" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D91" s="47" t="s">
         <v>1457</v>
       </c>
-      <c r="D91" s="47" t="s">
-        <v>1458</v>
-      </c>
       <c r="E91" s="58" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F91" s="3" t="str">
         <f>IF(E91&lt;&gt;"",VLOOKUP(E91,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -20979,10 +20983,10 @@
         <v>40701008</v>
       </c>
       <c r="H91" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I91" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J91" s="82"/>
       <c r="K91" s="82"/>
@@ -21057,7 +21061,7 @@
       <c r="CB91" s="82"/>
       <c r="CC91" s="82"/>
     </row>
-    <row r="92" spans="1:81" s="50" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:81" s="50" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49">
         <v>91</v>
       </c>
@@ -21065,10 +21069,10 @@
         <v>596</v>
       </c>
       <c r="C92" s="50" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D92" s="45" t="s">
         <v>1080</v>
-      </c>
-      <c r="D92" s="45" t="s">
-        <v>1081</v>
       </c>
       <c r="E92" s="53" t="s">
         <v>13</v>
@@ -21081,10 +21085,10 @@
         <v>116154003</v>
       </c>
       <c r="H92" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I92" s="50" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J92" s="82"/>
       <c r="K92" s="82"/>
@@ -21165,13 +21169,13 @@
       </c>
       <c r="B93" s="84"/>
       <c r="C93" s="48" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D93" s="48" t="s">
         <v>1082</v>
       </c>
-      <c r="D93" s="48" t="s">
-        <v>1083</v>
-      </c>
       <c r="E93" s="71" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F93" s="48" t="str">
         <f>IF(E93&lt;&gt;"",VLOOKUP(E93,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -21181,10 +21185,10 @@
         <v>399208008</v>
       </c>
       <c r="H93" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I93" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
@@ -21196,19 +21200,19 @@
       <c r="Q93" s="13"/>
       <c r="R93" s="13"/>
     </row>
-    <row r="94" spans="1:81" s="50" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:81" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49">
         <v>93</v>
       </c>
       <c r="B94" s="77"/>
       <c r="C94" s="50" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D94" s="50" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F94" s="50" t="str">
         <f>IF(E94&lt;&gt;"",VLOOKUP(E94,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -21218,10 +21222,10 @@
         <v>399208008</v>
       </c>
       <c r="H94" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I94" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J94" s="82"/>
       <c r="K94" s="82"/>
@@ -21302,13 +21306,13 @@
       </c>
       <c r="B95" s="83"/>
       <c r="C95" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>1084</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>1085</v>
-      </c>
       <c r="E95" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F95" s="51" t="str">
         <f>IF(E95&lt;&gt;"",VLOOKUP(E95,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -21318,10 +21322,10 @@
         <v>79760008</v>
       </c>
       <c r="H95" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I95" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
@@ -21396,19 +21400,19 @@
       <c r="CB95" s="13"/>
       <c r="CC95" s="13"/>
     </row>
-    <row r="96" spans="1:81" s="50" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:81" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49">
         <v>95</v>
       </c>
       <c r="B96" s="77"/>
       <c r="C96" s="45" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D96" s="60" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E96" s="60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F96" s="50" t="str">
         <f>IF(E96&lt;&gt;"",VLOOKUP(E96,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -21418,10 +21422,10 @@
         <v>79760008</v>
       </c>
       <c r="H96" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I96" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J96" s="82"/>
       <c r="K96" s="82"/>
@@ -21502,13 +21506,13 @@
       </c>
       <c r="B97" s="77"/>
       <c r="C97" s="63" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D97" s="68" t="s">
         <v>1086</v>
       </c>
-      <c r="D97" s="68" t="s">
-        <v>1087</v>
-      </c>
       <c r="E97" s="68" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F97" s="54" t="str">
         <f>IF(E97&lt;&gt;"",VLOOKUP(E97,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -21518,10 +21522,10 @@
         <v>268425006</v>
       </c>
       <c r="H97" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I97" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J97" s="82"/>
       <c r="K97" s="82"/>
@@ -21596,19 +21600,19 @@
       <c r="CB97" s="82"/>
       <c r="CC97" s="82"/>
     </row>
-    <row r="98" spans="1:81" s="50" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:81" s="50" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49">
         <v>97</v>
       </c>
       <c r="B98" s="77"/>
       <c r="C98" s="56" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D98" s="69" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E98" s="60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F98" s="50" t="str">
         <f>IF(E98&lt;&gt;"",VLOOKUP(E98,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -21618,10 +21622,10 @@
         <v>268425006</v>
       </c>
       <c r="H98" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I98" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J98" s="82"/>
       <c r="K98" s="82"/>
@@ -21702,13 +21706,13 @@
       </c>
       <c r="B99" s="77"/>
       <c r="C99" s="66" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D99" s="46" t="s">
         <v>1088</v>
       </c>
-      <c r="D99" s="46" t="s">
-        <v>1089</v>
-      </c>
       <c r="E99" s="46" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F99" s="3" t="str">
         <f>IF(E99&lt;&gt;"",VLOOKUP(E99,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -21718,10 +21722,10 @@
         <v>168537006</v>
       </c>
       <c r="H99" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I99" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J99" s="82"/>
       <c r="K99" s="82"/>
@@ -21796,19 +21800,19 @@
       <c r="CB99" s="82"/>
       <c r="CC99" s="82"/>
     </row>
-    <row r="100" spans="1:81" s="50" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:81" s="50" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49">
         <v>99</v>
       </c>
       <c r="B100" s="77"/>
       <c r="C100" s="45" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D100" s="60" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E100" s="60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F100" s="50" t="str">
         <f>IF(E100&lt;&gt;"",VLOOKUP(E100,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -21818,10 +21822,10 @@
         <v>168537006</v>
       </c>
       <c r="H100" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I100" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J100" s="82"/>
       <c r="K100" s="82"/>
@@ -21902,13 +21906,13 @@
       </c>
       <c r="B101" s="77"/>
       <c r="C101" s="63" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D101" s="68" t="s">
         <v>1090</v>
       </c>
-      <c r="D101" s="68" t="s">
-        <v>1091</v>
-      </c>
       <c r="E101" s="68" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F101" s="54" t="str">
         <f>IF(E101&lt;&gt;"",VLOOKUP(E101,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -21918,10 +21922,10 @@
         <v>168537006</v>
       </c>
       <c r="H101" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I101" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J101" s="82"/>
       <c r="K101" s="82"/>
@@ -21996,19 +22000,19 @@
       <c r="CB101" s="82"/>
       <c r="CC101" s="82"/>
     </row>
-    <row r="102" spans="1:81" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:81" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49">
         <v>101</v>
       </c>
       <c r="B102" s="77"/>
       <c r="C102" s="76" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D102" s="53" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E102" s="60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F102" s="50" t="str">
         <f>IF(E102&lt;&gt;"",VLOOKUP(E102,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -22018,10 +22022,10 @@
         <v>168537006</v>
       </c>
       <c r="H102" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I102" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J102" s="82"/>
       <c r="K102" s="82"/>
@@ -22102,13 +22106,13 @@
       </c>
       <c r="B103" s="83"/>
       <c r="C103" s="31" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D103" s="32" t="s">
         <v>1092</v>
       </c>
-      <c r="D103" s="32" t="s">
-        <v>1093</v>
-      </c>
       <c r="E103" s="32" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F103" s="48" t="str">
         <f>IF(E103&lt;&gt;"",VLOOKUP(E103,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -22118,10 +22122,10 @@
         <v>408754009</v>
       </c>
       <c r="H103" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I103" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
@@ -22133,19 +22137,19 @@
       <c r="Q103" s="13"/>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="1:81" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:81" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49">
         <v>103</v>
       </c>
       <c r="B104" s="77"/>
       <c r="C104" s="45" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D104" s="60" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E104" s="60" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F104" s="50" t="str">
         <f>IF(E104&lt;&gt;"",VLOOKUP(E104,'DE-EN'!$A$2:$B$799,2,FALSE),"")</f>
@@ -22155,10 +22159,10 @@
         <v>408754009</v>
       </c>
       <c r="H104" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I104" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J104" s="82"/>
       <c r="K104" s="82"/>
@@ -22239,10 +22243,10 @@
       </c>
       <c r="B105" s="77"/>
       <c r="C105" s="63" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D105" s="68" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E105" s="68" t="s">
         <v>222</v>
@@ -22255,10 +22259,10 @@
         <v>169072007</v>
       </c>
       <c r="H105" s="82" t="s">
-        <v>120</v>
+        <v>1485</v>
       </c>
       <c r="I105" s="82" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="J105" s="82"/>
       <c r="K105" s="82"/>
@@ -22333,16 +22337,16 @@
       <c r="CB105" s="82"/>
       <c r="CC105" s="82"/>
     </row>
-    <row r="106" spans="1:81" s="50" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:81" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49">
         <v>105</v>
       </c>
       <c r="B106" s="77"/>
       <c r="C106" s="45" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D106" s="53" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E106" s="60" t="s">
         <v>222</v>
@@ -22355,10 +22359,10 @@
         <v>169072007</v>
       </c>
       <c r="H106" s="50" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I106" s="53" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="J106" s="82"/>
       <c r="K106" s="82"/>
@@ -22435,12 +22439,11 @@
     </row>
   </sheetData>
   <autoFilter ref="H1:I106">
-    <filterColumn colId="1">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Importieren"/>
-        <filter val="ToDo"/>
-        <filter val="Zeitpunkt"/>
-        <filter val="Zu klären"/>
+        <filter val="Coding/neue Version"/>
+        <filter val="Zu Klären"/>
+        <filter val="Zu klären/Benötigt?"/>
       </filters>
     </filterColumn>
   </autoFilter>
